--- a/数据拟合.xlsx
+++ b/数据拟合.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="恢复" sheetId="2" r:id="rId1"/>
     <sheet name="沮丧" sheetId="3" r:id="rId2"/>
+    <sheet name="工作触发事件概率" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>健康值</t>
   </si>
@@ -28,15 +29,21 @@
   <si>
     <t>沮丧值</t>
   </si>
+  <si>
+    <t>心理健康值</t>
+  </si>
+  <si>
+    <t>工作触发事件概率</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -56,75 +63,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +78,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,19 +138,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +163,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +187,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +208,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,55 +238,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +292,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,31 +322,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,61 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +399,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,35 +428,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,16 +454,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +488,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -500,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,6 +1480,377 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作触发事件概率!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>工作触发事件概率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.302083333333333"/>
+                  <c:y val="-0.128472222222222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作触发事件概率!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作触发事件概率!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="246675175"/>
+        <c:axId val="190449314"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="246675175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190449314"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190449314"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246675175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1553,6 +1931,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2070,6 +2488,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2642,6 +3576,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4870450" y="1247775"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5156200" y="2438400"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2944,7 +3913,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3127,4 +4096,82 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>